--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\SVN\Wip\TES_DOCs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Product" sheetId="1" r:id="rId1"/>
+    <sheet name="defect" sheetId="1" r:id="rId1"/>
     <sheet name="Product Ref" sheetId="2" r:id="rId2"/>
+    <sheet name="Create Plan Ref" sheetId="3" r:id="rId3"/>
+    <sheet name="Hub" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>bấm nút edit ko hiển thị j cả</t>
   </si>
@@ -45,14 +42,53 @@
     <t>chưa có nút create product</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Create Plan</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test date</t>
+  </si>
+  <si>
+    <t>ở màn hình create a new product, nếu nhập value vào product height thì mới lần lượt hiển thị để nhập 3 (weight, width, length) tiếp theo</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>ở màn hình create a new product, product category should be a name/ not a number (it can not be defined)</t>
+  </si>
+  <si>
+    <t>click not use map, rồi click use map -&gt; xuất hiện lỗi</t>
+  </si>
+  <si>
+    <t>VuongND</t>
+  </si>
+  <si>
+    <t>KhanhNHV</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>chưa có button Change stt cho cả table ở sending to hub và waiting for return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +104,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -77,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,16 +144,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -208,6 +278,87 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408458</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8382000"/>
+          <a:ext cx="8942858" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455848</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10819048" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -254,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -289,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
@@ -466,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,67 +625,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="7">
+        <v>41428</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="7">
+        <v>41428</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>41428</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
+        <v>41458</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>41458</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>41458</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>41489</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Product Ref'!A1" display="bấm nút edit ko hiển thị j cả"/>
-    <hyperlink ref="B3" location="'Product Ref'!A20" display="click delete 1 product -&gt; hiển thị pop up sai message "/>
+    <hyperlink ref="C2" location="'Product Ref'!A1" display="bấm nút edit ko hiển thị j cả"/>
+    <hyperlink ref="C3" location="'Product Ref'!A20" display="click delete 1 product -&gt; hiển thị pop up sai message "/>
+    <hyperlink ref="C6" location="'Product Ref'!A47" display="ở màn hình create a new product, product category should be a name/ not a number (it can not be defined)"/>
+    <hyperlink ref="C8" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -542,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,4 +815,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\SVN\Wip\TES_DOCs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="defect" sheetId="1" r:id="rId1"/>
-    <sheet name="Product Ref" sheetId="2" r:id="rId2"/>
-    <sheet name="Create Plan Ref" sheetId="3" r:id="rId3"/>
-    <sheet name="Hub" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan" sheetId="5" r:id="rId2"/>
+    <sheet name="Product Ref" sheetId="2" r:id="rId3"/>
+    <sheet name="Create Plan Ref" sheetId="3" r:id="rId4"/>
+    <sheet name="Hub" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>bấm nút edit ko hiển thị j cả</t>
   </si>
@@ -82,6 +88,30 @@
   </si>
   <si>
     <t>chưa có button Change stt cho cả table ở sending to hub và waiting for return</t>
+  </si>
+  <si>
+    <t>chọn group All requests hay group &lt;number&gt; request(s)
++ All request: group all requests by latitude, longtitude
++ &lt;no.&gt; request(s): group theo &lt;no.&gt; requests như required</t>
+  </si>
+  <si>
+    <t>click button "Group" để group trong "Request" region</t>
+  </si>
+  <si>
+    <t>Click Add button để add requests mà mình muốn tạo thành plan
+*requests sẽ đc đưa đến Selected Request region</t>
+  </si>
+  <si>
+    <t>nhập số plan muốn tạo ra</t>
+  </si>
+  <si>
+    <t>Có thể remove bớt request nếu bạn thấy nó ko cần thiết (use Remove link)</t>
+  </si>
+  <si>
+    <t>Click "Solve " button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau khi click "Solve" ở màn hình 1, </t>
   </si>
 </sst>
 </file>
@@ -201,6 +231,87 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65602</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="238125"/>
+          <a:ext cx="8580952" cy="4171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8686</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4791075"/>
+          <a:ext cx="6714286" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -319,7 +430,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -617,7 +728,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -804,6 +915,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="51.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -817,7 +1027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -829,7 +1039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\SVN\Wip\TES_DOCs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="defect" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="5" r:id="rId2"/>
+    <sheet name="Plan Requirement" sheetId="5" r:id="rId2"/>
     <sheet name="Product Ref" sheetId="2" r:id="rId3"/>
     <sheet name="Create Plan Ref" sheetId="3" r:id="rId4"/>
     <sheet name="Hub" sheetId="4" r:id="rId5"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>bấm nút edit ko hiển thị j cả</t>
   </si>
@@ -95,9 +90,6 @@
 + &lt;no.&gt; request(s): group theo &lt;no.&gt; requests như required</t>
   </si>
   <si>
-    <t>click button "Group" để group trong "Request" region</t>
-  </si>
-  <si>
     <t>Click Add button để add requests mà mình muốn tạo thành plan
 *requests sẽ đc đưa đến Selected Request region</t>
   </si>
@@ -111,7 +103,51 @@
     <t>Click "Solve " button</t>
   </si>
   <si>
-    <t xml:space="preserve">Sau khi click "Solve" ở màn hình 1, </t>
+    <t>Sau khi click "Solve" ở màn hình 1, hiển thị màn hình "Solve" (2)
+- màn hình hiển thị các plan mới vừa đc tạo ra sau khi click solve</t>
+  </si>
+  <si>
+    <t>click on plan mà bạn muốn view/delete/update từng request thuộc plan đó</t>
+  </si>
+  <si>
+    <t>click button "Group" để group trong "Request" region để nhóm các request lại với nhau theo lat,long</t>
+  </si>
+  <si>
+    <t>Click save để lưu xuống database</t>
+  </si>
+  <si>
+    <t>click on request, có thể click delete/ move to another plan để xóa 1 request or chuyển request đó wa 1 plan khác (sẽ mất record request này)</t>
+  </si>
+  <si>
+    <t>click "Save" ở màn hình 2 sẽ hiển thị màn hình 3.. Table hiển thị những plan mới đc tạo ở trên , filter theo status = new và mới đc tạo</t>
+  </si>
+  <si>
+    <t>có thể chọn filter stt or theo ngày, nhấn Filter sẽ search theo điều kiện mới chọn khi nãy</t>
+  </si>
+  <si>
+    <t>muốn assign DM hay xem detail của plan nào thì nhấn nút view detail ở record của plan đó</t>
+  </si>
+  <si>
+    <t>Sau khi bấm nút view detail ở screen 3 sẽ hiển thị screen 4, với những thông tin thuộc plan mà user muốn view detail</t>
+  </si>
+  <si>
+    <t>nếu muốn assign delivery men , click vào button assign</t>
+  </si>
+  <si>
+    <t>Click button Assign ở screen 4 sẽ hiển thị screen 5
+* hiển thị những DM available</t>
+  </si>
+  <si>
+    <t>click checkbox vào DM muốn assign cho plan này</t>
+  </si>
+  <si>
+    <t>click OK -&gt; quay về screen4 , hiển thị những DM mới đc assign sau field name assign</t>
+  </si>
+  <si>
+    <t>click Cancel -&gt; quay về screen 4, ko có gì thay đổi</t>
+  </si>
+  <si>
+    <t>click OK để đóng screen Detail (chỉ view, ko làm j cả)-&gt; quay về màn hình plan management(screen3)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -210,6 +246,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -242,7 +281,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>65602</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -280,7 +319,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8686</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>28027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -300,6 +339,120 @@
         <a:xfrm>
           <a:off x="0" y="4791075"/>
           <a:ext cx="6714286" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227658</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9744075"/>
+          <a:ext cx="7542858" cy="4438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75678</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="14449425"/>
+          <a:ext cx="4180953" cy="2685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380572</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="3428572" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -915,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66:Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +1083,9 @@
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
@@ -945,12 +1101,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>21</v>
+      <c r="Q3" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -958,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -966,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -974,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -982,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -991,6 +1147,9 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>2</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>1</v>
       </c>
@@ -998,12 +1157,164 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P21">
+    <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P62" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P63" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P77" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P78" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>bấm nút edit ko hiển thị j cả</t>
   </si>
@@ -43,9 +43,6 @@
     <t>chưa có nút create product</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>ở màn hình create a new product, nếu nhập value vào product height thì mới lần lượt hiển thị để nhập 3 (weight, width, length) tiếp theo</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>PIC</t>
@@ -116,9 +110,6 @@
     <t>Click save để lưu xuống database</t>
   </si>
   <si>
-    <t>click on request, có thể click delete/ move to another plan để xóa 1 request or chuyển request đó wa 1 plan khác (sẽ mất record request này)</t>
-  </si>
-  <si>
     <t>click "Save" ở màn hình 2 sẽ hiển thị màn hình 3.. Table hiển thị những plan mới đc tạo ở trên , filter theo status = new và mới đc tạo</t>
   </si>
   <si>
@@ -148,6 +139,41 @@
   </si>
   <si>
     <t>click OK để đóng screen Detail (chỉ view, ko làm j cả)-&gt; quay về màn hình plan management(screen3)</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>click on request, có thể click delete/ move to another plan để xóa 1 request or chuyển request đó wa 1 plan khác (sẽ mất record request này)
+* nếu click button "Move to another plan" hiển thị screen 2b, trong combobox hiển thị tất cả những plan với stt = new, (trừ plan mà request đang thuộc về)</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>chọn 1 plan ở màn hình 2b 
+click OK -&gt; quay về screen 2, request mới vừa được move wa plan khác sẽ bị remove khỏi table</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>click Cancel -&gt; quay về screen 2, không có gì thay đổi</t>
   </si>
 </sst>
 </file>
@@ -226,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -250,6 +276,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -319,7 +351,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>8686</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -453,6 +485,44 @@
         <a:xfrm>
           <a:off x="0" y="17526000"/>
           <a:ext cx="3428572" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>475919</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="6886575"/>
+          <a:ext cx="2647619" cy="1457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -889,60 +959,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7">
         <v>41428</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
@@ -950,17 +1028,18 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="7">
         <v>41428</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -968,95 +1047,107 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7">
         <v>41428</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7">
         <v>41458</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="7">
+        <v>41458</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7">
-        <v>41458</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7">
+        <v>41458</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7">
-        <v>41458</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5">
         <v>41489</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
+      <formula1>"Opened, Fixed, Closed, Canceled, Not Yet Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" location="'Product Ref'!A1" display="bấm nút edit ko hiển thị j cả"/>
     <hyperlink ref="C3" location="'Product Ref'!A20" display="click delete 1 product -&gt; hiển thị pop up sai message "/>
     <hyperlink ref="C6" location="'Product Ref'!A47" display="ở màn hình create a new product, product category should be a name/ not a number (it can not be defined)"/>
     <hyperlink ref="C8" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
@@ -1070,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66:Q67"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1106,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -1114,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1122,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1130,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1162,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1170,23 +1261,42 @@
         <v>2</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
       <c r="P23" s="1">
         <v>3</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P24" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>28</v>
+      <c r="Q26" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -1210,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1218,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1226,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -1250,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -1258,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1266,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="Q63" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -1290,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -1298,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1306,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -1314,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>bấm nút edit ko hiển thị j cả</t>
   </si>
@@ -101,9 +101,6 @@
 - màn hình hiển thị các plan mới vừa đc tạo ra sau khi click solve</t>
   </si>
   <si>
-    <t>click on plan mà bạn muốn view/delete/update từng request thuộc plan đó</t>
-  </si>
-  <si>
     <t>click button "Group" để group trong "Request" region để nhóm các request lại với nhau theo lat,long</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
 * hiển thị những DM available</t>
   </si>
   <si>
-    <t>click checkbox vào DM muốn assign cho plan này</t>
-  </si>
-  <si>
     <t>click OK -&gt; quay về screen4 , hiển thị những DM mới đc assign sau field name assign</t>
   </si>
   <si>
@@ -157,23 +151,40 @@
   </si>
   <si>
     <t>2b</t>
-  </si>
-  <si>
-    <t>click on request, có thể click delete/ move to another plan để xóa 1 request or chuyển request đó wa 1 plan khác (sẽ mất record request này)
-* nếu click button "Move to another plan" hiển thị screen 2b, trong combobox hiển thị tất cả những plan với stt = new, (trừ plan mà request đang thuộc về)</t>
-  </si>
-  <si>
-    <t>3a</t>
   </si>
   <si>
     <t>chọn 1 plan ở màn hình 2b 
 click OK -&gt; quay về screen 2, request mới vừa được move wa plan khác sẽ bị remove khỏi table</t>
   </si>
   <si>
-    <t>3b</t>
-  </si>
-  <si>
     <t>click Cancel -&gt; quay về screen 2, không có gì thay đổi</t>
+  </si>
+  <si>
+    <t>click plan 1 :
+-  table hiển thị tất cả request thuộc plan 1
+- map hiển thị đường đi của plan 1</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on request
+* click delete: hiển thị screen 2a
+ ** click yes: quay về screen 2, request bị remove khỏi table, update lại đường đi của plan trên map
+ ** click no: quay về screen 2, không có gì thay đổi
+</t>
+  </si>
+  <si>
+    <t>*  click button "Move to another plan": hiển thị screen 2b, trong combobox hiển thị tất cả những plan với stt = new, (trừ plan mà request đang thuộc về)</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>click vào checkbox DM muốn assign cho plan này</t>
   </si>
 </sst>
 </file>
@@ -345,51 +356,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>8686</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28027</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4791075"/>
-          <a:ext cx="6714286" cy="4380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>227658</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>85171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -400,7 +373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,13 +394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>75678</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>180639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -438,7 +411,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -459,13 +432,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380572</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>37857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -476,7 +449,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -495,16 +468,54 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>418264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="4838700"/>
+          <a:ext cx="6695239" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>475919</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152218</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -521,8 +532,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="6886575"/>
+          <a:off x="6362700" y="7762875"/>
           <a:ext cx="2647619" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371179</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>323648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="5181600"/>
+          <a:ext cx="2371429" cy="1619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -951,7 +1000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -981,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -996,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,7 +1060,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7">
         <v>41428</v>
@@ -1030,7 +1079,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7">
         <v>41428</v>
@@ -1049,7 +1098,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7">
         <v>41428</v>
@@ -1068,7 +1117,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7">
         <v>41458</v>
@@ -1087,7 +1136,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7">
         <v>41458</v>
@@ -1108,7 +1157,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7">
         <v>41458</v>
@@ -1129,7 +1178,7 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5">
         <v>41489</v>
@@ -1159,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -1238,6 +1287,9 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
       <c r="O20">
         <v>2</v>
       </c>
@@ -1256,175 +1308,183 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P22" s="1">
         <v>2</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P23" s="1">
         <v>3</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="P24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="Q25" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P26" s="1">
-        <v>4</v>
+      <c r="P26" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="Q26" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O39">
-        <v>3</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="P40" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="P41" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P43" s="1">
         <v>3</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q43" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P63" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P64" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P76" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P77" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P78" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P79" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="P61" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P62" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="P63" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O74">
-        <v>5</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="P75" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P76" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q76" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="P77" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q77" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P78" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -355,44 +355,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227658</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>85171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9744075"/>
-          <a:ext cx="7542858" cy="4438096"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -411,7 +373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -449,7 +411,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -487,7 +449,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -525,7 +487,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -563,7 +525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -572,6 +534,44 @@
         <a:xfrm>
           <a:off x="6534150" y="5181600"/>
           <a:ext cx="2371429" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180040</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>189950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="11410950"/>
+          <a:ext cx="7485715" cy="4400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,7 +1000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="defect" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan Requirement" sheetId="5" r:id="rId2"/>
-    <sheet name="Product Ref" sheetId="2" r:id="rId3"/>
-    <sheet name="Create Plan Ref" sheetId="3" r:id="rId4"/>
-    <sheet name="Hub" sheetId="4" r:id="rId5"/>
+    <sheet name="Testcase" sheetId="6" r:id="rId1"/>
+    <sheet name="Reference" sheetId="7" r:id="rId2"/>
+    <sheet name="defect" sheetId="1" r:id="rId3"/>
+    <sheet name="Plan Requirement" sheetId="5" r:id="rId4"/>
+    <sheet name="Product Ref" sheetId="2" r:id="rId5"/>
+    <sheet name="Create Plan Ref" sheetId="3" r:id="rId6"/>
+    <sheet name="Hub" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -23,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
-  <si>
-    <t>bấm nút edit ko hiển thị j cả</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="193">
   <si>
     <t>No</t>
   </si>
@@ -136,9 +135,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
   </si>
   <si>
     <t>Reference</t>
@@ -186,12 +182,1541 @@
   <si>
     <t>click vào checkbox DM muốn assign cho plan này</t>
   </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>nút edit ko hiển thị gì cả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, The passcode is not valid, system will show the message: Not a valid passcode
+</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ThinhNTY</t>
+  </si>
+  <si>
+    <t>passcode: 111111</t>
+  </si>
+  <si>
+    <t>Invalid passcode</t>
+  </si>
+  <si>
+    <t>Valid passcode</t>
+  </si>
+  <si>
+    <t>3, System show the receiver detail of the passcode Hub staff has entered</t>
+  </si>
+  <si>
+    <t>passcode: 321</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Mark as Finished</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>1. Confirm message is displayed
+2a. Redirect to the main page of Hub, update Delivered and In Hub tabs
+2b. Redirect to the main page of Hub, nothing happened</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>- Nhập valid passcode, click submit
+- click "mark as finished" -&gt; click OK
+=&gt; quay về màn hình ban đầu của hub, ko update số Order trên In Hub và Delivered</t>
+  </si>
+  <si>
+    <t>must press F5 to update</t>
+  </si>
+  <si>
+    <t>Main page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1, Main page should be displayed as: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>View Order by  Sending to Hub Status</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status = sending to hub</t>
+  </si>
+  <si>
+    <t>database must have Sending  to hub status data</t>
+  </si>
+  <si>
+    <t>View Order by  In Hub Status</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status = In Hub</t>
+  </si>
+  <si>
+    <t>database must have In hub status data</t>
+  </si>
+  <si>
+    <t>View Order by  Delivered Status</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status = Delivered</t>
+  </si>
+  <si>
+    <t>database must have Delivered status data</t>
+  </si>
+  <si>
+    <t>View Order by  Expired Status</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status = Expired</t>
+  </si>
+  <si>
+    <t>database must have Expired status data</t>
+  </si>
+  <si>
+    <t>View Order by  Waiting for Return Status</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status =  Waiting for Return</t>
+  </si>
+  <si>
+    <t>database must have  Waiting for Return status data</t>
+  </si>
+  <si>
+    <t>View Order by  Returned Status</t>
+  </si>
+  <si>
+    <t>2, System will display data table with order status = Returned</t>
+  </si>
+  <si>
+    <t>database must have Returned status data</t>
+  </si>
+  <si>
+    <t>Change status on each order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change status of all orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Open the main page of Hub
+</t>
+  </si>
+  <si>
+    <t>3, redirect to the main page of Hub
+- The order is changed status is removed from table. Record no of Sending to Hub/Waiting for Return decrease one.
+- The order is move to In Hub/ Returned tab. Record no of In Hub/Returned increase one.</t>
+  </si>
+  <si>
+    <t>- Record no of Sending to Hub/Waiting for Return is not decreased one
+- Record no of In Hub/Returned increase one.</t>
+  </si>
+  <si>
+    <t>Change status of multi orders</t>
+  </si>
+  <si>
+    <t>3, all orders are marked
+4, redirect to the main page of Hub
+- All orders are changed status are removed from table. Record no of Sending to Hub/Wating for Return is 0.
+- All orders are move to In Hub/Returned tab. Record no of In Hub/Returned is increased..</t>
+  </si>
+  <si>
+    <t>3, orders are marked
+4, redirect to the main page of Hub
+- Marked orders are changed status are removed from table. Record no of Sending to Hub/Wating for Return is 0.
+- Marked orders are move to In Hub/Returned tab. Record no of In Hub/Returned is increased..</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t>click view detail:
+- show thêm product ID -&gt; field này bị disable, ko cho edit</t>
+  </si>
+  <si>
+    <t>màn hình create product:
+- Image có nút/link browse để chọn hình
+- chưa validate các field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Create product pop-up is displayed
+3, The values must be valid
+4a, - Redirect to the main page of Product
+      - The new product is shown in the first row of data table
+4b, - Redirect to the main page of Product
+       - Nothing is changed
+</t>
+  </si>
+  <si>
+    <t>the new product is not shown in the data table</t>
+  </si>
+  <si>
+    <t>Edit existed product</t>
+  </si>
+  <si>
+    <t>2, Edit pop-up is displayed
+3, The values must be valid
+4a, Redirect to the main page of Product
+- The product is updated in the data table
+4b, Redirect to the main page of Product
+- Nothing is changed</t>
+  </si>
+  <si>
+    <t>PRODUCT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>HUB MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Delete existed product</t>
+  </si>
+  <si>
+    <t>2, Confirm message is displayed
+3a, Redirect to the main page of Product
+- The order is removed from the data table. Database is updated
+3b, Redirect to the main page of Product
+- Nothing is changed</t>
+  </si>
+  <si>
+    <t>PLAN MANAGEMENT</t>
+  </si>
+  <si>
+    <t>COLLECTION PLAN</t>
+  </si>
+  <si>
+    <t>Group all requests</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Product
+2, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button on the top page
+3, Input new product info
+4a, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+4b, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Product
+2, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon on the record user want to modify
+3, Input the values
+4a, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+4b, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Product
+2, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> icon on the record user want to delete
+3a, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+3b, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Enter an valid passcode
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Enter an invalid passcode (the passcode is out of database or the order is delivered)
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Pre-condition: pass TC_2
+1. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark as Finished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+2a. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+2b. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sending to Hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1, Open the main page of Hub
+2, Click</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In Hub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delivered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Waiting for Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Returned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sending to Hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Waiting for Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+3, click change status button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sending to Hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Waiting for Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+3, check all orders in the first row to change status
+4, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Change Status </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button (the button is out of data table)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Hub
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sending to Hub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Waiting for Return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tab
+3, check orders in the first column of each row to change status
+4, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button(the button is out of data table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Collection plan
+2, Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group All Requests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>3, All requests are grouped by latitude, longtitude</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Group &lt;no.&gt; request(s)</t>
+  </si>
+  <si>
+    <t>group 3 requests</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Collection plan
+2a, Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Group &lt;no.&gt; Request(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2b, Input the number user want to group requests
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>2b, Input the positive number
+3, Requests are grouped by each 3 requests which has the same latitude, longitude</t>
+  </si>
+  <si>
+    <t>Test case No</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Add request(s) to create plan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Collection plan
+2, Choose the requests to create plan
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove request(s) from Selected Request box</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Collection plan
+2, Choose the requests to remove in the Selected Request box
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter plan no. to create plan</t>
+  </si>
+  <si>
+    <t>Create new plan(s) successfully</t>
+  </si>
+  <si>
+    <t>Delete request of plan</t>
+  </si>
+  <si>
+    <t>Move request to another plan</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Save modified plan(s) to database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assigned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Canceled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Finished </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">None </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To Date</t>
+    </r>
+  </si>
+  <si>
+    <t>View plan(s) info which are created (include: request(s) and map)</t>
+  </si>
+  <si>
+    <t>View detail of each plan</t>
+  </si>
+  <si>
+    <t>Assign Delivery men to plan</t>
+  </si>
+  <si>
+    <t>DELIVERY PLAN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open the main page of Collection plan
+2, Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group All Orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>3, All orders are grouped by latitude, longtitude</t>
+  </si>
+  <si>
+    <t>Group all orders</t>
+  </si>
+  <si>
+    <t>Group &lt;no.&gt; order(s)</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Collection plan
+2a, Choose Group &lt;no.&gt; order(s)
+2b, Input the number user want to group orders
+3, Click Group button</t>
+  </si>
+  <si>
+    <t>2b, Input the positive number
+3, orders are grouped by each 3 orders which has the same latitude, longitude</t>
+  </si>
+  <si>
+    <t>group 3 orders</t>
+  </si>
+  <si>
+    <t>Add order(s) to create plan</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Collection plan
+2, Choose the orders to create plan
+3, Click Add button</t>
+  </si>
+  <si>
+    <t>Remove order(s) from Selected order box</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Collection plan
+2, Choose the orders to remove in the Selected order box
+3, Click Remove button</t>
+  </si>
+  <si>
+    <t>View plan(s) info which are created (include: order(s) and map)</t>
+  </si>
+  <si>
+    <t>Delete order of plan</t>
+  </si>
+  <si>
+    <t>Move order to another plan</t>
+  </si>
+  <si>
+    <t>SCHEDULE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ORDER MANAGEMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,16 +1740,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,20 +1817,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,9 +1901,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -293,6 +1909,115 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -313,6 +2038,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>531810</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12723810" cy="3990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -583,7 +2351,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -702,7 +2470,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1008,209 +2776,1759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="20"/>
+    <col min="9" max="9" width="17.42578125" style="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="22">
+        <v>41520</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="22">
+        <v>41550</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="22">
+        <v>41550</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" ht="210" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="22">
+        <v>41550</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="41">
+        <v>41550</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="41">
+        <v>41550</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="41">
+        <v>41550</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="23"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="23"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="23"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="23"/>
+    </row>
+    <row r="60" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="23"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="23"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="20">
+        <f>COUNT(A3:A1048575)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A43:I43"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E20 E22:E42 E44:E1048576">
+      <formula1>"Passed, Failed, N/A, Canceled"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H20 H22:H42 H44:H1048576">
+      <formula1>"ThinhNTY,KhanhNHV, VuongND, AnhAN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F20 F22:F42 F44:F1048576">
+      <formula1>"Normal, Abnormal"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" location="Reference!A1" display="1, Main page should be displayed as: screen"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="7">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4">
         <v>41428</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4">
         <v>41428</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4">
         <v>41428</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4">
         <v>41458</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4">
         <v>41458</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41550</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7">
+    </row>
+    <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41550</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4">
         <v>41458</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4">
         <v>41489</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41520</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33">
       <formula1>"Opened, Fixed, Closed, Canceled, Not Yet Tested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>"VuongND, KhanhNHV,AnhAN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C3" location="'Product Ref'!A20" display="click delete 1 product -&gt; hiển thị pop up sai message "/>
     <hyperlink ref="C6" location="'Product Ref'!A47" display="ở màn hình create a new product, product category should be a name/ not a number (it can not be defined)"/>
-    <hyperlink ref="C8" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
+    <hyperlink ref="C11" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -1227,34 +4545,34 @@
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>18</v>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>24</v>
+      <c r="Q3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>19</v>
+      <c r="Q4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1262,15 +4580,15 @@
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>21</v>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1278,7 +4596,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1288,75 +4606,75 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O20">
         <v>2</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="P21" s="1">
         <v>1</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>23</v>
+      <c r="Q21" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P22" s="1">
         <v>2</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>43</v>
+      <c r="Q22" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P23" s="1">
         <v>3</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>45</v>
+      <c r="Q23" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="P25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="P25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>42</v>
+      <c r="Q26" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P27" s="1">
         <v>5</v>
       </c>
-      <c r="Q27" s="11" t="s">
-        <v>25</v>
+      <c r="Q27" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -1369,34 +4687,34 @@
         <v>3</v>
       </c>
       <c r="P40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="6" t="s">
-        <v>26</v>
+      <c r="Q41" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P42" s="1">
         <v>2</v>
       </c>
-      <c r="Q42" s="6" t="s">
-        <v>27</v>
+      <c r="Q42" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P43" s="1">
         <v>3</v>
       </c>
-      <c r="Q43" s="11" t="s">
-        <v>28</v>
+      <c r="Q43" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -1409,18 +4727,18 @@
         <v>4</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="P62" s="1">
         <v>1</v>
       </c>
-      <c r="Q62" s="6" t="s">
-        <v>29</v>
+      <c r="Q62" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -1428,15 +4746,15 @@
         <v>2</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P64" s="1">
         <v>3</v>
       </c>
-      <c r="Q64" s="11" t="s">
-        <v>34</v>
+      <c r="Q64" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -1449,18 +4767,18 @@
         <v>5</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P76" s="1">
         <v>1</v>
       </c>
-      <c r="Q76" s="6" t="s">
-        <v>31</v>
+      <c r="Q76" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -1468,15 +4786,15 @@
         <v>2</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="P78" s="1">
         <v>3</v>
       </c>
-      <c r="Q78" s="6" t="s">
-        <v>32</v>
+      <c r="Q78" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -1484,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +4811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1508,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1520,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="6" r:id="rId1"/>
@@ -1962,15 +1962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,15 +1980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2006,6 +1988,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2016,8 +2010,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2768,7 +2768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2781,9 +2781,9 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2828,20 +2828,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="C3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>67</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>80</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>81</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>83</v>
       </c>
@@ -3129,14 +3129,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="165" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -3154,18 +3154,18 @@
       <c r="H13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="180" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="29" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -3185,14 +3185,14 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="210" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="210" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="18" t="s">
@@ -3213,17 +3213,17 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -3232,7 +3232,7 @@
       <c r="B17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D17" s="18" t="s">
@@ -3244,7 +3244,7 @@
       <c r="F17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="35">
         <v>41550</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -3261,7 +3261,7 @@
       <c r="B18" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="18" t="s">
@@ -3273,7 +3273,7 @@
       <c r="F18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="35">
         <v>41550</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -3288,7 +3288,7 @@
       <c r="B19" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -3300,7 +3300,7 @@
       <c r="F19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="35">
         <v>41550</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -3309,30 +3309,30 @@
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -3341,7 +3341,7 @@
       <c r="B22" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="29" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -3364,7 +3364,7 @@
       <c r="B23" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="29" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="18" t="s">
@@ -3389,10 +3389,10 @@
       <c r="B24" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="14" t="s">
         <v>143</v>
       </c>
@@ -3410,10 +3410,10 @@
       <c r="B25" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="14" t="s">
         <v>143</v>
       </c>
@@ -3431,8 +3431,8 @@
       <c r="B26" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="14" t="s">
         <v>143</v>
       </c>
@@ -3450,8 +3450,8 @@
       <c r="B27" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="14" t="s">
         <v>143</v>
       </c>
@@ -3469,8 +3469,8 @@
       <c r="B28" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="14" t="s">
         <v>143</v>
       </c>
@@ -3488,8 +3488,8 @@
       <c r="B29" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="14" t="s">
         <v>143</v>
       </c>
@@ -3507,8 +3507,8 @@
       <c r="B30" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="14" t="s">
         <v>143</v>
       </c>
@@ -3526,8 +3526,8 @@
       <c r="B31" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="14" t="s">
         <v>143</v>
       </c>
@@ -3545,8 +3545,8 @@
       <c r="B32" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="14" t="s">
         <v>143</v>
       </c>
@@ -3564,8 +3564,8 @@
       <c r="B33" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="14" t="s">
         <v>143</v>
       </c>
@@ -3583,8 +3583,8 @@
       <c r="B34" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="34"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="14" t="s">
         <v>143</v>
       </c>
@@ -3602,8 +3602,8 @@
       <c r="B35" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="34"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="14" t="s">
         <v>143</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>168</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="34"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="14" t="s">
         <v>143</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>169</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="34"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="14" t="s">
         <v>143</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>170</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="14" t="s">
         <v>143</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>171</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="34"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="14" t="s">
         <v>143</v>
       </c>
@@ -3694,11 +3694,11 @@
       <c r="A40" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="14" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>174</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="34"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="14" t="s">
         <v>143</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>175</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="34"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="14" t="s">
         <v>143</v>
       </c>
@@ -3748,17 +3748,17 @@
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
     </row>
     <row r="44" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -3767,7 +3767,7 @@
       <c r="B44" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="29" t="s">
         <v>177</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -3790,7 +3790,7 @@
       <c r="B45" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="29" t="s">
         <v>181</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -3815,10 +3815,10 @@
       <c r="B46" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="14" t="s">
         <v>143</v>
       </c>
@@ -3836,10 +3836,10 @@
       <c r="B47" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="14" t="s">
         <v>143</v>
       </c>
@@ -3857,8 +3857,8 @@
       <c r="B48" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="14" t="s">
         <v>143</v>
       </c>
@@ -3876,8 +3876,8 @@
       <c r="B49" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="14" t="s">
         <v>143</v>
       </c>
@@ -3895,8 +3895,8 @@
       <c r="B50" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="34"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="14" t="s">
         <v>143</v>
       </c>
@@ -3914,8 +3914,8 @@
       <c r="B51" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="34"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="14" t="s">
         <v>143</v>
       </c>
@@ -3933,8 +3933,8 @@
       <c r="B52" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="34"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="14" t="s">
         <v>143</v>
       </c>
@@ -3952,8 +3952,8 @@
       <c r="B53" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="34"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="14" t="s">
         <v>143</v>
       </c>
@@ -3971,8 +3971,8 @@
       <c r="B54" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="34"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="14" t="s">
         <v>143</v>
       </c>
@@ -3990,8 +3990,8 @@
       <c r="B55" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="34"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="14" t="s">
         <v>143</v>
       </c>
@@ -4009,8 +4009,8 @@
       <c r="B56" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="34"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="14" t="s">
         <v>143</v>
       </c>
@@ -4028,8 +4028,8 @@
       <c r="B57" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="34"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="14" t="s">
         <v>143</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>168</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="34"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="14" t="s">
         <v>143</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="34"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="14" t="s">
         <v>143</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>170</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="34"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="14" t="s">
         <v>143</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>171</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="34"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="14" t="s">
         <v>143</v>
       </c>
@@ -4120,11 +4120,11 @@
       <c r="A62" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="34"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="14" t="s">
         <v>143</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>174</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="34"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="14" t="s">
         <v>143</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>175</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="34"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="14" t="s">
         <v>143</v>
       </c>
@@ -4174,30 +4174,30 @@
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="40"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048576" s="20">
@@ -4250,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +4307,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -4379,11 +4379,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4397,11 +4397,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4415,11 +4415,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
       <c r="F9" s="1"/>
@@ -4469,7 +4469,7 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="1" t="s">

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="237">
   <si>
     <t>No</t>
   </si>
@@ -416,32 +416,7 @@
 - show thêm product ID -&gt; field này bị disable, ko cho edit</t>
   </si>
   <si>
-    <t>màn hình create product:
-- Image có nút/link browse để chọn hình
-- chưa validate các field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, Create product pop-up is displayed
-3, The values must be valid
-4a, - Redirect to the main page of Product
-      - The new product is shown in the first row of data table
-4b, - Redirect to the main page of Product
-       - Nothing is changed
-</t>
-  </si>
-  <si>
-    <t>the new product is not shown in the data table</t>
-  </si>
-  <si>
     <t>Edit existed product</t>
-  </si>
-  <si>
-    <t>2, Edit pop-up is displayed
-3, The values must be valid
-4a, Redirect to the main page of Product
-- The product is updated in the data table
-4b, Redirect to the main page of Product
-- Nothing is changed</t>
   </si>
   <si>
     <t>PRODUCT MANAGEMENT</t>
@@ -460,9 +435,6 @@
 - Nothing is changed</t>
   </si>
   <si>
-    <t>PLAN MANAGEMENT</t>
-  </si>
-  <si>
     <t>COLLECTION PLAN</t>
   </si>
   <si>
@@ -1329,9 +1301,313 @@
     <t>Remove request(s) from Selected Request box</t>
   </si>
   <si>
+    <t>Enter plan no. to create plan</t>
+  </si>
+  <si>
+    <t>Create new plan(s) successfully</t>
+  </si>
+  <si>
+    <t>Delete request of plan</t>
+  </si>
+  <si>
+    <t>Move request to another plan</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>Save modified plan(s) to database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assigned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Canceled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Finished </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">None </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>From Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To Date</t>
+    </r>
+  </si>
+  <si>
+    <t>View plan(s) info which are created (include: request(s) and map)</t>
+  </si>
+  <si>
+    <t>View detail of each plan</t>
+  </si>
+  <si>
+    <t>Assign Delivery men to plan</t>
+  </si>
+  <si>
+    <t>DELIVERY PLAN</t>
+  </si>
+  <si>
+    <t>3, All orders are grouped by latitude, longtitude</t>
+  </si>
+  <si>
+    <t>Group all orders</t>
+  </si>
+  <si>
+    <t>Group &lt;no.&gt; order(s)</t>
+  </si>
+  <si>
+    <t>2b, Input the positive number
+3, orders are grouped by each 3 orders which has the same latitude, longitude</t>
+  </si>
+  <si>
+    <t>group 3 orders</t>
+  </si>
+  <si>
+    <t>Add order(s) to create plan</t>
+  </si>
+  <si>
+    <t>Remove order(s) from Selected order box</t>
+  </si>
+  <si>
+    <t>View plan(s) info which are created (include: order(s) and map)</t>
+  </si>
+  <si>
+    <t>Delete order of plan</t>
+  </si>
+  <si>
+    <t>Move order to another plan</t>
+  </si>
+  <si>
+    <t>PLAN MANAGEMENT (AUTO SCHEDULE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Create product pop-up is displayed
+3, The values must be valid
+4a, - Redirect to the main page of Product
+      - The new product is shown in data table and save to database
+4b, - Redirect to the main page of Product
+       - Nothing is changed
+</t>
+  </si>
+  <si>
+    <t>2, Edit pop-up is displayed
+3, The values must be valid
+4a, Redirect to the main page of Product
+- The product is updated in the data table and save to database
+4b, Redirect to the main page of Product
+- Nothing is changed</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1, Open the main page of Collection plan
-2, Choose the requests to remove in the Selected Request box
+2, Choose the requests to remove from Selected Request box to Request box
 3, Click </t>
     </r>
     <r>
@@ -1357,38 +1633,464 @@
     </r>
   </si>
   <si>
-    <t>Enter plan no. to create plan</t>
-  </si>
-  <si>
-    <t>Create new plan(s) successfully</t>
-  </si>
-  <si>
-    <t>Delete request of plan</t>
-  </si>
-  <si>
-    <t>Move request to another plan</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>Save modified plan(s) to database</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
+    <t>3, Request(s) are copied to Selected Request box</t>
+  </si>
+  <si>
+    <t>3,  Request(s) are removed to Request box</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Collection plan
+2, Input plan no. to create plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex: input 3 plans
+</t>
+  </si>
+  <si>
+    <t>2, the plan no. must be a positive number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Pre-condition: pass TC_1(or TC_2), TC_3, TC_5
+1, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Move to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit Plan(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen
+- Plan(s) are created successfully</t>
+    </r>
+  </si>
+  <si>
+    <t>*Pre-condition: pass TC_06
+1, click on plan user want to view/edit</t>
+  </si>
+  <si>
+    <t>1, - Request(s) of this plan are displayed in the data table
+    - Map will be displayed the way DM will be going to</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Pre-condition: pass TC_07
+1, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button on request user want to delete
+2a, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+2b, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Pre-condition: pass TC_07
+1, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Move to another plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button on request user want to remove from this plan
+2, Choose plan user want to move the request to
+3a, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+3b, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Pre-condition: pass TC_8 or TC_9
+1, click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Save </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Move to another plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen will be displayed
+- Combobox has plans list
+3a, Redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Plan(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+- The request is removed from the data table. Map is also updated 
+3b, Redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Plan(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen
+- Nothing is changed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Confirm message will be displayed
+2a, Redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Plan(s) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen
+- The request is removed from the data table. Map is also  updated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen
+- The table will be displayed the plan(s) are created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>Search multiple status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, All plans have </t>
     </r>
     <r>
       <rPr>
@@ -1409,38 +2111,167 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
+      <t>status will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3, All plans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assigned
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, All plans have </t>
     </r>
     <r>
       <rPr>
@@ -1461,12 +2292,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
+      <t>status will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Canceled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, All plans have </t>
     </r>
     <r>
       <rPr>
@@ -1487,12 +2388,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
+      <t>status will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, All plans have </t>
     </r>
     <r>
       <rPr>
@@ -1513,120 +2484,225 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">None </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search by </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Search by </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>From Date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Search by </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To Date</t>
-    </r>
-  </si>
-  <si>
-    <t>View plan(s) info which are created (include: request(s) and map)</t>
-  </si>
-  <si>
-    <t>View detail of each plan</t>
-  </si>
-  <si>
-    <t>Assign Delivery men to plan</t>
-  </si>
-  <si>
-    <t>DELIVERY PLAN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1, Open the main page of Collection plan
-2, Choose </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Group All Orders</t>
-    </r>
-    <r>
-      <rPr>
+      <t>status will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">None
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Choose status = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New|Assigned|Canceled|Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3, All plans have </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New|Assigned|Canceled|Finished </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open Plan Management screen
+2, Input </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">From Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1634,18 +2710,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3, Click </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Group </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
     </r>
     <r>
       <rPr>
@@ -1659,57 +2745,417 @@
     </r>
   </si>
   <si>
-    <t>3, All orders are grouped by latitude, longtitude</t>
-  </si>
-  <si>
-    <t>Group all orders</t>
-  </si>
-  <si>
-    <t>Group &lt;no.&gt; order(s)</t>
-  </si>
-  <si>
-    <t>1, Open the main page of Collection plan
+    <t>2, The date must be valid
+3, All orders mapped search condition will be displayed in the data table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open Plan Management screen
+2, Input </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">From Date
+- To Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is blank</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2, The</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> From Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be valid
+3, All orders mapped search condition will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2, The</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> To Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be valid
+3, All orders mapped search condition will be displayed in the data table</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Open </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plan Management </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">screen
+2, Input </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To Date
+- From Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is blank</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Filter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1, Open</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Plan Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">View Detail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button on the plan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Pre-condition: Pass TC_21
+1, Check the DM to assign
+2, Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">View Detail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen will be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, Redirect to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">View Detail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>screen
+- DM(s) are assigned to the plan</t>
+    </r>
+  </si>
+  <si>
+    <t>3, order(s) are copied to Selected order box</t>
+  </si>
+  <si>
+    <t>3,  order(s) are removed to order box</t>
+  </si>
+  <si>
+    <t>1, - order(s) of this plan are displayed in the data table
+    - Map will be displayed the way DM will be going to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Pre-condition: pass TC_07
+1, click Delete button on order user want to delete
+2a, Click OK button
+2b, Click Cancel button
+</t>
+  </si>
+  <si>
+    <t>1, Confirm message will be displayed
+2a, Redirect to Edit Plan(s) screen
+- The order is removed from the data table. Map is also  updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Pre-condition: pass TC_07
+1, click Move to another plan button on order user want to remove from this plan
+2, Choose plan user want to move the order to
+3a, Click OK button
+3b, Click Cancel button
+</t>
+  </si>
+  <si>
+    <t>1, Move to another plan screen will be displayed
+- Combobox has plans list
+3a, Redirect to Edit Plan(s) screen
+- The order is removed from the data table. Map is also updated 
+3b, Redirect to Edit Plan(s) screen
+- Nothing is changed</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Delivery plan
+2, Choose Group All orders
+3, Click Group button</t>
+  </si>
+  <si>
+    <t>1, Open the main page of Delivery plan
 2a, Choose Group &lt;no.&gt; order(s)
 2b, Input the number user want to group orders
 3, Click Group button</t>
   </si>
   <si>
-    <t>2b, Input the positive number
-3, orders are grouped by each 3 orders which has the same latitude, longitude</t>
-  </si>
-  <si>
-    <t>group 3 orders</t>
-  </si>
-  <si>
-    <t>Add order(s) to create plan</t>
-  </si>
-  <si>
-    <t>1, Open the main page of Collection plan
+    <t>1, Open the main page of Delivery plan
 2, Choose the orders to create plan
 3, Click Add button</t>
   </si>
   <si>
-    <t>Remove order(s) from Selected order box</t>
-  </si>
-  <si>
-    <t>1, Open the main page of Collection plan
-2, Choose the orders to remove in the Selected order box
+    <t>1, Open the main page of Delivery plan
+2, Choose the orders to remove from Selected order box to order box
 3, Click Remove button</t>
   </si>
   <si>
-    <t>View plan(s) info which are created (include: order(s) and map)</t>
-  </si>
-  <si>
-    <t>Delete order of plan</t>
-  </si>
-  <si>
-    <t>Move order to another plan</t>
-  </si>
-  <si>
-    <t>SCHEDULE MANAGEMENT</t>
-  </si>
-  <si>
-    <t>ORDER MANAGEMENT</t>
+    <t>1, Open the main page of Delivery plan
+2, Input plan no. to create plan</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +3331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1971,9 +3417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1985,9 +3428,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2781,9 +4221,9 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2801,10 +4241,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>48</v>
@@ -2828,20 +4268,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
@@ -2868,7 +4308,7 @@
       </c>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2876,7 +4316,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>58</v>
@@ -2897,7 +4337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>66</v>
       </c>
@@ -2905,7 +4345,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>50</v>
@@ -2926,7 +4366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>67</v>
       </c>
@@ -2934,7 +4374,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>68</v>
@@ -2955,7 +4395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +4403,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>76</v>
@@ -2984,7 +4424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
@@ -2992,7 +4432,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>90</v>
@@ -3013,7 +4453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>80</v>
       </c>
@@ -3021,7 +4461,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>93</v>
@@ -3042,7 +4482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>81</v>
       </c>
@@ -3050,7 +4490,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>96</v>
@@ -3071,7 +4511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -3079,7 +4519,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>99</v>
@@ -3100,7 +4540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>83</v>
       </c>
@@ -3108,7 +4548,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>102</v>
@@ -3129,7 +4569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="165" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
@@ -3137,7 +4577,7 @@
         <v>104</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>107</v>
@@ -3158,7 +4598,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="180" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
@@ -3166,7 +4606,7 @@
         <v>105</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>110</v>
@@ -3185,7 +4625,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:9" ht="210" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="210" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>86</v>
       </c>
@@ -3193,7 +4633,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>111</v>
@@ -3213,19 +4653,19 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" ht="169.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
@@ -3233,39 +4673,37 @@
         <v>112</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>41550</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="135" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="150" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>51</v>
@@ -3273,7 +4711,7 @@
       <c r="F18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>41550</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -3286,13 +4724,13 @@
         <v>66</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>51</v>
@@ -3300,7 +4738,7 @@
       <c r="F19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <v>41550</v>
       </c>
       <c r="H19" s="14" t="s">
@@ -3309,46 +4747,46 @@
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
+      <c r="A20" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="A21" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>62</v>
@@ -3362,16 +4800,16 @@
         <v>65</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>62</v>
@@ -3379,7 +4817,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
       <c r="I23" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3387,14 +4825,16 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="31"/>
+        <v>146</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>185</v>
+      </c>
       <c r="E24" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>62</v>
@@ -3403,19 +4843,21 @@
       <c r="H24" s="14"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="31"/>
+        <v>184</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="E25" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>62</v>
@@ -3424,36 +4866,46 @@
       <c r="H25" s="14"/>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="E26" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I26" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="31"/>
+        <v>149</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E27" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>62</v>
@@ -3462,17 +4914,21 @@
       <c r="H27" s="14"/>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="31"/>
+        <v>167</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="E28" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>62</v>
@@ -3481,17 +4937,21 @@
       <c r="H28" s="14"/>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="31"/>
+        <v>150</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>198</v>
+      </c>
       <c r="E29" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>62</v>
@@ -3500,17 +4960,21 @@
       <c r="H29" s="14"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="165" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="31"/>
+        <v>151</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E30" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>62</v>
@@ -3519,17 +4983,21 @@
       <c r="H30" s="14"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="E31" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>62</v>
@@ -3538,17 +5006,21 @@
       <c r="H31" s="14"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="E32" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>62</v>
@@ -3557,17 +5029,21 @@
       <c r="H32" s="14"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="31"/>
+        <v>159</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E33" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>62</v>
@@ -3576,17 +5052,21 @@
       <c r="H33" s="14"/>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="31"/>
+        <v>160</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="E34" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>62</v>
@@ -3595,17 +5075,21 @@
       <c r="H34" s="14"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="31"/>
+        <v>161</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="E35" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>62</v>
@@ -3614,17 +5098,21 @@
       <c r="H35" s="14"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="31"/>
+        <v>162</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="E36" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>62</v>
@@ -3633,17 +5121,21 @@
       <c r="H36" s="14"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E37" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>62</v>
@@ -3652,17 +5144,21 @@
       <c r="H37" s="14"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="31"/>
+        <v>152</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="E38" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>62</v>
@@ -3671,17 +5167,21 @@
       <c r="H38" s="14"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="E39" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>62</v>
@@ -3690,17 +5190,21 @@
       <c r="H39" s="14"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="31"/>
+        <v>154</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="E40" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>62</v>
@@ -3709,17 +5213,21 @@
       <c r="H40" s="14"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="E41" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>62</v>
@@ -3728,17 +5236,21 @@
       <c r="H41" s="14"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="31"/>
+        <v>168</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>223</v>
+      </c>
       <c r="E42" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>62</v>
@@ -3747,101 +5259,105 @@
       <c r="H42" s="14"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-    </row>
-    <row r="44" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="43" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+    </row>
+    <row r="45" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="B45" s="26" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="31"/>
+        <v>233</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="E46" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I46" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="31"/>
+        <v>234</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>225</v>
+      </c>
       <c r="E47" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>62</v>
@@ -3850,17 +5366,21 @@
       <c r="H47" s="14"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="31"/>
+        <v>177</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="E48" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>62</v>
@@ -3869,36 +5389,46 @@
       <c r="H48" s="14"/>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="31"/>
+        <v>148</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="E49" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="I49" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="31"/>
+        <v>149</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>191</v>
+      </c>
       <c r="E50" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>62</v>
@@ -3907,17 +5437,21 @@
       <c r="H50" s="14"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="31"/>
+        <v>178</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>227</v>
+      </c>
       <c r="E51" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>62</v>
@@ -3926,17 +5460,21 @@
       <c r="H51" s="14"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="31"/>
+        <v>179</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>229</v>
+      </c>
       <c r="E52" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>62</v>
@@ -3945,17 +5483,21 @@
       <c r="H52" s="14"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="165" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="31"/>
+        <v>180</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>231</v>
+      </c>
       <c r="E53" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>62</v>
@@ -3964,17 +5506,21 @@
       <c r="H53" s="14"/>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="E54" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>62</v>
@@ -3983,17 +5529,21 @@
       <c r="H54" s="14"/>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="31"/>
+        <v>158</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="E55" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>62</v>
@@ -4002,17 +5552,21 @@
       <c r="H55" s="14"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="31"/>
+        <v>159</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E56" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>62</v>
@@ -4021,17 +5575,21 @@
       <c r="H56" s="14"/>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="31"/>
+        <v>160</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="E57" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>62</v>
@@ -4040,17 +5598,21 @@
       <c r="H57" s="14"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="31"/>
+        <v>161</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="E58" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>62</v>
@@ -4059,17 +5621,21 @@
       <c r="H58" s="14"/>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="31"/>
+        <v>162</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="E59" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>62</v>
@@ -4078,17 +5644,21 @@
       <c r="H59" s="14"/>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E60" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>62</v>
@@ -4097,17 +5667,21 @@
       <c r="H60" s="14"/>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="31"/>
+        <v>202</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>214</v>
+      </c>
       <c r="E61" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>62</v>
@@ -4116,17 +5690,21 @@
       <c r="H61" s="14"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="31"/>
+        <v>153</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>216</v>
+      </c>
       <c r="E62" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>62</v>
@@ -4135,17 +5713,21 @@
       <c r="H62" s="14"/>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="E63" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>62</v>
@@ -4154,17 +5736,21 @@
       <c r="H63" s="14"/>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="31"/>
+        <v>155</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="E64" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>62</v>
@@ -4173,31 +5759,51 @@
       <c r="H64" s="14"/>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="40"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="40"/>
+    <row r="65" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="23"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048576" s="20">
@@ -4206,23 +5812,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:I66"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E20 E22:E42 E44:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E20 E22:E43 E45:E1048576">
       <formula1>"Passed, Failed, N/A, Canceled"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H20 H22:H42 H44:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H20 H22:H43 H45:H1048576">
       <formula1>"ThinhNTY,KhanhNHV, VuongND, AnhAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F20 F22:F42 F44:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F20 F22:F43 F45:F1048576">
       <formula1>"Normal, Abnormal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4230,6 +5834,7 @@
     <hyperlink ref="D3" location="Reference!A1" display="1, Main page should be displayed as: screen"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4248,10 +5853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +5912,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -4325,7 +5930,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -4343,7 +5948,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -4361,7 +5966,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -4379,12 +5984,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -4397,89 +6002,77 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4">
-        <v>41550</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>41458</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="4">
-        <v>41458</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41489</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="4">
-        <v>41489</v>
+        <v>41520</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4">
-        <v>41520</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,16 +6082,11 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
         <v>14</v>
       </c>
     </row>
@@ -4507,7 +6095,7 @@
     <mergeCell ref="A3:A7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
       <formula1>"Opened, Fixed, Closed, Canceled, Not Yet Tested"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
@@ -4517,7 +6105,7 @@
   <hyperlinks>
     <hyperlink ref="C3" location="'Product Ref'!A20" display="click delete 1 product -&gt; hiển thị pop up sai message "/>
     <hyperlink ref="C6" location="'Product Ref'!A47" display="ở màn hình create a new product, product category should be a name/ not a number (it can not be defined)"/>
-    <hyperlink ref="C11" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
+    <hyperlink ref="C10" location="Hub!A1" display="chưa có button Change stt cho cả table ở sending to hub và waiting for return"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4528,8 +6116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46:Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wip/TES_DOCs/Defect.xlsx
+++ b/Wip/TES_DOCs/Defect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="Create Plan Ref" sheetId="3" r:id="rId6"/>
     <sheet name="Hub" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">defect!$A$1:$G$15</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="247">
   <si>
     <t>No</t>
   </si>
@@ -711,77 +714,6 @@
       </rPr>
       <t xml:space="preserve"> button
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">*Pre-condition: pass TC_2
-1. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mark as Finished</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button
-2a. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">button
-2b. Click </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>button</t>
     </r>
   </si>
   <si>
@@ -3156,6 +3088,107 @@
   <si>
     <t>1, Open the main page of Delivery plan
 2, Input plan no. to create plan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Pre-condition: pass TC_1
+1. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mark as Finished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+2a. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">button
+2b. Click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>AUTHENTICATION MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>13/3/2013</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>bỏ button Group</t>
+  </si>
+  <si>
+    <t>click plan thì hightlight plan đó</t>
+  </si>
+  <si>
+    <t>format lại phần receiver info (sau khi submit passcode)</t>
+  </si>
+  <si>
+    <t>canh lề cho data table của các order tab</t>
+  </si>
+  <si>
+    <t>ORDER MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ORDER &amp; REQUEST ARROVEMENT</t>
   </si>
 </sst>
 </file>
@@ -3451,13 +3484,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4221,9 +4254,9 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -4241,10 +4274,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>48</v>
@@ -4310,7 +4343,7 @@
     </row>
     <row r="4" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -4339,7 +4372,7 @@
     </row>
     <row r="5" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>56</v>
@@ -4368,13 +4401,13 @@
     </row>
     <row r="6" spans="1:9" ht="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>68</v>
@@ -4397,13 +4430,13 @@
     </row>
     <row r="7" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>76</v>
@@ -4426,13 +4459,13 @@
     </row>
     <row r="8" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>90</v>
@@ -4455,13 +4488,13 @@
     </row>
     <row r="9" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>93</v>
@@ -4484,13 +4517,13 @@
     </row>
     <row r="10" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>96</v>
@@ -4513,13 +4546,13 @@
     </row>
     <row r="11" spans="1:9" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>99</v>
@@ -4542,13 +4575,13 @@
     </row>
     <row r="12" spans="1:9" ht="75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>102</v>
@@ -4571,13 +4604,13 @@
     </row>
     <row r="13" spans="1:9" ht="165" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>107</v>
@@ -4600,13 +4633,13 @@
     </row>
     <row r="14" spans="1:9" ht="180" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>110</v>
@@ -4627,13 +4660,13 @@
     </row>
     <row r="15" spans="1:9" ht="210" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>111</v>
@@ -4676,7 +4709,7 @@
         <v>121</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>51</v>
@@ -4703,7 +4736,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>51</v>
@@ -4746,9 +4779,9 @@
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -4759,7 +4792,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>119</v>
       </c>
@@ -4780,13 +4813,13 @@
         <v>120</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>62</v>
@@ -4800,16 +4833,16 @@
         <v>65</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>62</v>
@@ -4817,7 +4850,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
       <c r="I23" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4825,16 +4858,16 @@
         <v>66</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>62</v>
@@ -4848,16 +4881,16 @@
         <v>67</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>62</v>
@@ -4871,16 +4904,16 @@
         <v>74</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>62</v>
@@ -4888,7 +4921,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="14"/>
       <c r="I26" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4896,16 +4929,16 @@
         <v>79</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>62</v>
@@ -4919,16 +4952,16 @@
         <v>80</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>62</v>
@@ -4942,16 +4975,16 @@
         <v>81</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>62</v>
@@ -4965,16 +4998,16 @@
         <v>82</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>62</v>
@@ -4988,16 +5021,16 @@
         <v>83</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>62</v>
@@ -5011,16 +5044,16 @@
         <v>84</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>62</v>
@@ -5034,16 +5067,16 @@
         <v>85</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>62</v>
@@ -5057,16 +5090,16 @@
         <v>86</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>62</v>
@@ -5080,16 +5113,16 @@
         <v>87</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>62</v>
@@ -5103,16 +5136,16 @@
         <v>88</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>211</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>62</v>
@@ -5126,16 +5159,16 @@
         <v>89</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>62</v>
@@ -5146,19 +5179,19 @@
     </row>
     <row r="38" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>214</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>62</v>
@@ -5169,19 +5202,19 @@
     </row>
     <row r="39" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="E39" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>62</v>
@@ -5192,19 +5225,19 @@
     </row>
     <row r="40" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>62</v>
@@ -5215,19 +5248,19 @@
     </row>
     <row r="41" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>62</v>
@@ -5238,19 +5271,19 @@
     </row>
     <row r="42" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>62</v>
@@ -5261,19 +5294,19 @@
     </row>
     <row r="43" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>62</v>
@@ -5282,9 +5315,9 @@
       <c r="H43" s="14"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -5300,16 +5333,16 @@
         <v>64</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>62</v>
@@ -5323,16 +5356,16 @@
         <v>65</v>
       </c>
       <c r="B46" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>174</v>
-      </c>
       <c r="E46" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>62</v>
@@ -5340,7 +5373,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
       <c r="I46" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5348,16 +5381,16 @@
         <v>66</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>62</v>
@@ -5371,16 +5404,16 @@
         <v>67</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>62</v>
@@ -5394,16 +5427,16 @@
         <v>74</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>62</v>
@@ -5411,7 +5444,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
       <c r="I49" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5419,16 +5452,16 @@
         <v>79</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>62</v>
@@ -5442,16 +5475,16 @@
         <v>80</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>62</v>
@@ -5465,16 +5498,16 @@
         <v>81</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="E52" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>62</v>
@@ -5488,16 +5521,16 @@
         <v>82</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>231</v>
-      </c>
       <c r="E53" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>62</v>
@@ -5511,16 +5544,16 @@
         <v>83</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>62</v>
@@ -5534,16 +5567,16 @@
         <v>84</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>62</v>
@@ -5557,16 +5590,16 @@
         <v>85</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="E56" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>62</v>
@@ -5580,16 +5613,16 @@
         <v>86</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="E57" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>62</v>
@@ -5603,16 +5636,16 @@
         <v>87</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="E58" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>62</v>
@@ -5626,16 +5659,16 @@
         <v>88</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>211</v>
-      </c>
       <c r="E59" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>62</v>
@@ -5649,16 +5682,16 @@
         <v>89</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>62</v>
@@ -5669,19 +5702,19 @@
     </row>
     <row r="61" spans="1:9" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C61" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>214</v>
-      </c>
       <c r="E61" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>62</v>
@@ -5692,19 +5725,19 @@
     </row>
     <row r="62" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="E62" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>62</v>
@@ -5715,19 +5748,19 @@
     </row>
     <row r="63" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="E63" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>62</v>
@@ -5738,19 +5771,19 @@
     </row>
     <row r="64" spans="1:9" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>62</v>
@@ -5761,19 +5794,19 @@
     </row>
     <row r="65" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>62</v>
@@ -5784,19 +5817,19 @@
     </row>
     <row r="66" spans="1:9" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>62</v>
@@ -5804,6 +5837,45 @@
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
       <c r="I66" s="23"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="38"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="38"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048576" s="20">
@@ -5812,7 +5884,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="A67:I67"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A20:I20"/>
@@ -5853,10 +5928,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,7 +5967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5911,8 +5987,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+    <row r="3" spans="1:7" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -5929,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -6001,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="1">
         <v>8</v>
@@ -6011,7 +6089,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="1">
         <v>9</v>
@@ -6020,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="E9" s="4">
         <v>41458</v>
@@ -6029,7 +6107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -6040,16 +6118,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4">
-        <v>41489</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -6060,39 +6138,102 @@
         <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4">
-        <v>41520</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>240</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <autoFilter ref="A1:G15">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Opened"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="2">
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
